--- a/normalizacion.xlsx
+++ b/normalizacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="16515" windowHeight="9285"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="15600" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,9 @@
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
